--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,114 +40,111 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>horrible</t>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>false</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>serious</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -163,48 +160,48 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
@@ -214,67 +211,64 @@
     <t>wow</t>
   </si>
   <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>live</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>digital</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>watching</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
     <t>watch</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -635,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -757,10 +751,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -804,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>0.9399999999999999</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9423076923076923</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,31 +866,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6">
+        <v>0.88</v>
+      </c>
+      <c r="L6">
+        <v>44</v>
+      </c>
+      <c r="M6">
+        <v>44</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>6</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>10</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9375</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7">
         <v>0.8666666666666667</v>
@@ -954,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8">
         <v>0.7543859649122807</v>
@@ -1025,16 +1019,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>0.6896551724137931</v>
+        <v>0.7</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,31 +1066,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>4</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10">
-        <v>0.6133333333333333</v>
-      </c>
-      <c r="L10">
-        <v>46</v>
-      </c>
-      <c r="M10">
-        <v>46</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,16 +1119,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>0.6111111111111112</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1175,16 +1169,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>0.5384615384615384</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,10 +1301,10 @@
         <v>0.75</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15">
-        <v>0.5263157894736842</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>0.5185185185185185</v>
+        <v>0.5</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7333333333333333</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1475,10 +1469,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K18">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L18">
         <v>6</v>
@@ -1496,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6923076923076923</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19">
-        <v>0.4242424242424243</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1548,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20">
         <v>0.375</v>
@@ -1604,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.65</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21">
         <v>0.375</v>
@@ -1654,13 +1648,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6470588235294118</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1666,19 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="L22">
         <v>6</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="L22">
-        <v>11</v>
-      </c>
       <c r="M22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,37 +1698,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6363636363636364</v>
+        <v>0.5625</v>
       </c>
       <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>7</v>
       </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K23">
-        <v>0.2608695652173913</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1748,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5833333333333334</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,19 +1766,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K24">
-        <v>0.226775956284153</v>
+        <v>0.2358834244080146</v>
       </c>
       <c r="L24">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M24">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>849</v>
+        <v>839</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,13 +1798,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5833333333333334</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1822,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K25">
         <v>0.2203389830508475</v>
@@ -1854,13 +1848,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5714285714285714</v>
+        <v>0.5289855072463768</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1872,19 +1866,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K26">
-        <v>0.2142857142857143</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,13 +1898,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5652173913043478</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1922,19 +1916,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K27">
-        <v>0.1739130434782609</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1946,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,13 +1948,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5319148936170213</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1972,19 +1966,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K28">
-        <v>0.1692307692307692</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1996,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,13 +1998,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2022,19 +2016,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K29">
-        <v>0.1311475409836066</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2046,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2054,13 +2048,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4782608695652174</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2072,19 +2066,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K30">
-        <v>0.1157894736842105</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2096,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,13 +2098,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4705882352941176</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2122,19 +2116,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K31">
-        <v>0.1126760563380282</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2146,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,13 +2148,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4615384615384616</v>
+        <v>0.45</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2172,31 +2166,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32">
+        <v>0.1058823529411765</v>
+      </c>
+      <c r="L32">
+        <v>9</v>
+      </c>
+      <c r="M32">
+        <v>9</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>76</v>
-      </c>
-      <c r="K32">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L32">
-        <v>6</v>
-      </c>
-      <c r="M32">
-        <v>6</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2204,13 +2198,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2222,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K33">
-        <v>0.1111111111111111</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="L33">
         <v>6</v>
@@ -2246,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2254,13 +2248,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2272,19 +2266,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K34">
-        <v>0.1058823529411765</v>
+        <v>0.05109489051094891</v>
       </c>
       <c r="L34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2296,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>76</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2304,13 +2298,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4166666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2322,19 +2316,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K35">
-        <v>0.0958904109589041</v>
+        <v>0.03765060240963856</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2346,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>66</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2354,13 +2348,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3571428571428572</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2372,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K36">
-        <v>0.03519061583577713</v>
+        <v>0.03180212014134275</v>
       </c>
       <c r="L36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2396,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>329</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2404,13 +2398,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3333333333333333</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2422,19 +2416,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K37">
-        <v>0.03333333333333333</v>
+        <v>0.03148148148148148</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2446,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2454,13 +2448,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2472,19 +2466,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K38">
-        <v>0.03162650602409638</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2496,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>643</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2504,13 +2498,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3214285714285715</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2522,19 +2516,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K39">
-        <v>0.02473498233215548</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2546,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>276</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2554,78 +2548,54 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1666666666666667</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <v>13</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40">
+        <v>0.01670506912442396</v>
+      </c>
+      <c r="L40">
+        <v>29</v>
+      </c>
+      <c r="M40">
+        <v>29</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="K40">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="L40">
-        <v>11</v>
-      </c>
-      <c r="M40">
-        <v>11</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.04026845637583892</v>
-      </c>
-      <c r="C41">
-        <v>12</v>
-      </c>
-      <c r="D41">
-        <v>13</v>
-      </c>
-      <c r="E41">
-        <v>0.08</v>
-      </c>
-      <c r="F41">
-        <v>0.92</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>286</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="K41">
         <v>0.01664532650448143</v>
@@ -2647,32 +2617,6 @@
       </c>
       <c r="Q41">
         <v>768</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K42">
-        <v>0.01209677419354839</v>
-      </c>
-      <c r="L42">
-        <v>21</v>
-      </c>
-      <c r="M42">
-        <v>21</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>1715</v>
       </c>
     </row>
   </sheetData>
